--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2714.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2714.xlsx
@@ -354,7 +354,7 @@
         <v>2.40517768760054</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.352601566784489</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2714.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2714.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167529534093692</v>
+        <v>1.459666967391968</v>
       </c>
       <c r="B1">
-        <v>2.40517768760054</v>
+        <v>3.819129467010498</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.783946514129639</v>
       </c>
       <c r="D1">
-        <v>2.352601566784489</v>
+        <v>0.891598105430603</v>
       </c>
       <c r="E1">
-        <v>1.214220759741188</v>
+        <v>1.091726660728455</v>
       </c>
     </row>
   </sheetData>
